--- a/public/standardFormats/studentSubjectAlloc.xlsx
+++ b/public/standardFormats/studentSubjectAlloc.xlsx
@@ -31,10 +31,10 @@
     <t xml:space="preserve">paper_code</t>
   </si>
   <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121212</t>
+    <t xml:space="preserve">GPK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEF305</t>
   </si>
 </sst>
 </file>
@@ -45,7 +45,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -67,16 +67,30 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -84,6 +98,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -110,12 +131,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -128,6 +165,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -136,39 +233,43 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="12.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>2020214</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0"/>
+      <c r="C44" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
